--- a/data/trans_dic/CONS_REC-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_REC-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -562,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,8%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>9,42%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>8,31%</t>
+          <t>8,62%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>9,51%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,55%</t>
+          <t>7,47%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>7,48%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,89; 8,16</t>
+          <t>2,88; 7,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,9; 6,18</t>
+          <t>1,54; 5,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,2; 5,09</t>
+          <t>3,22; 7,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,76; 13,42</t>
+          <t>7,37; 11,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,03; 9,95</t>
+          <t>6,78; 11,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,58; 8,83</t>
+          <t>7,6; 11,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,99; 10,18</t>
+          <t>5,9; 9,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,58; 7,82</t>
+          <t>5,24; 8,42</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,44; 6,63</t>
+          <t>6,02; 9,16</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,48%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>10,07%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>7,55%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>3,8%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,88; 3,42</t>
+          <t>4,32; 6,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,19; 2,21</t>
+          <t>0,79; 2,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,84; 5,29</t>
+          <t>1,47; 2,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,81; 7,23</t>
+          <t>8,86; 11,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,28; 4,91</t>
+          <t>2,39; 5,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,8; 9,87</t>
+          <t>4,36; 6,81</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,4; 4,92</t>
+          <t>6,81; 8,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,46; 3,39</t>
+          <t>1,77; 3,35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,95; 7,19</t>
+          <t>3,18; 4,55</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>6,54%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,22%</t>
+          <t>4,77%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>5,19%</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,79; 4,45</t>
+          <t>1,59; 3,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 3,2</t>
+          <t>1,08; 4,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,31; 3,28</t>
+          <t>1,48; 4,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,54; 9,89</t>
+          <t>5,01; 8,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,45; 6,25</t>
+          <t>3,29; 7,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,97; 7,98</t>
+          <t>5,68; 10,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,17; 6,63</t>
+          <t>3,82; 5,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,53; 4,35</t>
+          <t>2,49; 4,78</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,6; 5,48</t>
+          <t>3,99; 6,51</t>
         </is>
       </c>
     </row>
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,4%</t>
+          <t>9,05%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>6,77%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>6,87%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>4,76%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,67; 4,03</t>
+          <t>3,77; 5,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,65; 2,63</t>
+          <t>1,14; 2,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,31; 4,48</t>
+          <t>2,06; 3,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,51; 8,43</t>
+          <t>8,19; 10,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,34; 5,72</t>
+          <t>3,55; 5,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,04; 8,54</t>
+          <t>5,85; 7,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,76; 5,99</t>
+          <t>6,29; 7,42</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,31; 4,13</t>
+          <t>2,58; 3,98</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,47; 6,39</t>
+          <t>4,22; 5,39</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Consumo de medicamentos reconstruyentes</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>4091</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6877</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>10582</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>12029</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>34037</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>26020</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>16120</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>40915</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>36602</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2536; 6411</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3514; 12296</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>6944; 15569</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>9409; 15225</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>26746; 43767</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>20797; 32654</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>12727; 19806</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>32598; 52391</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>29489; 44834</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>370</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>23343</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>19719</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>17619</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>43470</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>53074</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>48069</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>66813</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>72793</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>65688</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>19593; 27941</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>11093; 31233</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>12654; 25203</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>38272; 49665</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>33055; 70880</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>37853; 59137</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>60320; 74986</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>49588; 93504</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>54994; 78690</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3786</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>10290</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>9816</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>12701</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>21508</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>31439</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>16486</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>31798</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>41255</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2416; 6018</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4987; 20177</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5594; 16455</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>9739; 16135</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>14605; 31845</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>23678; 41994</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>13198; 20261</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>22466; 43183</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>31707; 51814</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>391</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>560</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>31219</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>36886</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>38016</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>68200</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>108620</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>105528</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>99419</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>145506</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>143545</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>26114; 36351</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>23832; 51303</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>30058; 49042</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>61763; 76062</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>78942; 131208</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>91198; 121844</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>91048; 107302</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>111281; 172132</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>127284; 162648</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/CONS_REC-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_REC-Estudios-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos reconstruyentes</t>
+          <t>Consumo de medicamentos reconstruyentes (tasa de respuesta: 99,64%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1115,7 +1115,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos reconstruyentes</t>
+          <t>Consumo de medicamentos reconstruyentes (tasa de respuesta: 99,64%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/CONS_REC-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_REC-Estudios-trans_dic.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>9,36%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,47%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -686,12 +686,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,88; 7,28</t>
+          <t>2,53; 6,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,54; 5,4</t>
+          <t>1,45; 5,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -701,12 +701,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,37; 11,92</t>
+          <t>7,35; 11,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,78; 11,09</t>
+          <t>6,65; 10,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,9; 9,18</t>
+          <t>5,91; 8,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,24; 8,42</t>
+          <t>5,14; 8,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -743,7 +743,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,07%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>7,55%</t>
+          <t>6,78%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,32; 6,16</t>
+          <t>3,78; 5,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,79; 2,22</t>
+          <t>0,71; 2,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,86; 11,5</t>
+          <t>8,02; 10,41</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,39; 5,11</t>
+          <t>2,34; 5,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,81; 8,47</t>
+          <t>6,09; 7,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,77; 3,35</t>
+          <t>1,85; 3,35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,59; 3,97</t>
+          <t>1,6; 3,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,08; 4,39</t>
+          <t>1,14; 4,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,01; 8,31</t>
+          <t>4,38; 7,07</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,29; 7,18</t>
+          <t>3,28; 7,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,82; 5,86</t>
+          <t>3,38; 5,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,49; 4,78</t>
+          <t>2,45; 5,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>8,21%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>6,17%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,77; 5,24</t>
+          <t>3,36; 4,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,14; 2,45</t>
+          <t>1,05; 2,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,19; 10,09</t>
+          <t>7,43; 9,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,55; 5,9</t>
+          <t>3,5; 5,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,29; 7,42</t>
+          <t>5,65; 6,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,58; 3,98</t>
+          <t>2,6; 4,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4091</t>
+          <t>3178</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12029</t>
+          <t>11369</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16120</t>
+          <t>14547</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1322,12 +1322,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2536; 6411</t>
+          <t>2086; 5017</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3514; 12296</t>
+          <t>3311; 12579</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1337,12 +1337,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9409; 15225</t>
+          <t>8932; 14452</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>26746; 43767</t>
+          <t>26243; 43117</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -1352,12 +1352,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>12727; 19806</t>
+          <t>12052; 17898</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>32598; 52391</t>
+          <t>32019; 52606</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>23343</t>
+          <t>20694</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>43470</t>
+          <t>40704</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1462,7 +1462,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>66813</t>
+          <t>61398</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1485,12 +1485,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19593; 27941</t>
+          <t>17431; 24913</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11093; 31233</t>
+          <t>10051; 31540</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1500,12 +1500,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>38272; 49665</t>
+          <t>35631; 46260</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>33055; 70880</t>
+          <t>32419; 70374</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1515,12 +1515,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>60320; 74986</t>
+          <t>55184; 68504</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>49588; 93504</t>
+          <t>51721; 93589</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3786</t>
+          <t>4308</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12701</t>
+          <t>13126</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16486</t>
+          <t>17434</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1648,12 +1648,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2416; 6018</t>
+          <t>2814; 6502</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4987; 20177</t>
+          <t>5226; 19664</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1663,12 +1663,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9739; 16135</t>
+          <t>9983; 16127</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>14605; 31845</t>
+          <t>14524; 31435</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1678,12 +1678,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>13198; 20261</t>
+          <t>13639; 21257</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>22466; 43183</t>
+          <t>22161; 45431</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1758,7 +1758,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>31219</t>
+          <t>28181</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>68200</t>
+          <t>65199</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>99419</t>
+          <t>93379</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1811,12 +1811,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>26114; 36351</t>
+          <t>24184; 32967</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>23832; 51303</t>
+          <t>22071; 50423</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1826,12 +1826,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>61763; 76062</t>
+          <t>58954; 71868</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>78942; 131208</t>
+          <t>77890; 130953</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>91048; 107302</t>
+          <t>85557; 101351</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>111281; 172132</t>
+          <t>112419; 174385</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">

--- a/data/trans_dic/CONS_REC-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/CONS_REC-Estudios-trans_dic.xlsx
@@ -563,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -633,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>2,78%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4,9%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>3,85%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>3,02%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>4,9%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>8,39%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>9,51%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>9,36%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>8,62%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>9,51%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>6,31%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>7,48%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>7,13%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>6,57%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>7,48%</t>
         </is>
       </c>
     </row>
@@ -686,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>1,31; 5,15</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3,22; 7,21</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>2,53; 6,08</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>1,45; 5,52</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>3,22; 7,21</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>6,44; 10,57</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>7,6; 11,93</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>7,35; 11,9</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>6,65; 10,92</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>7,6; 11,93</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>4,96; 8,13</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>6,02; 9,16</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>5,91; 8,77</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>5,14; 8,45</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>6,02; 9,16</t>
         </is>
       </c>
     </row>
@@ -743,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>2,02%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2,04%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>4,48%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,4%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,04%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>4,55%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>5,54%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>9,16%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>3,83%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>5,54%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>3,28%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>3,8%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>6,78%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>2,6%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>3,8%</t>
         </is>
       </c>
     </row>
@@ -796,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>1,29; 3,11</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1,47; 2,92</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>3,78; 5,4</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,71; 2,24</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1,47; 2,92</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>3,71; 5,68</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>4,36; 6,81</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>8,02; 10,41</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>2,34; 5,08</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>4,36; 6,81</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>2,67; 3,99</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>3,18; 4,55</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>6,09; 7,56</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>1,85; 3,35</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>3,18; 4,55</t>
         </is>
       </c>
     </row>
@@ -853,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>2,02%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2,59%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>2,45%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,24%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,59%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>5,06%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>7,54%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>5,76%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>4,85%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>7,54%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>3,52%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>5,19%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>4,32%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>3,52%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>5,19%</t>
         </is>
       </c>
     </row>
@@ -906,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>1,03; 3,81</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1,48; 4,35</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>1,6; 3,7</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>1,14; 4,28</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>1,48; 4,35</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>3,48; 7,15</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>5,68; 10,07</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>4,38; 7,07</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>3,28; 7,09</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>5,68; 10,07</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>2,53; 4,8</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>3,99; 6,51</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>3,38; 5,27</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>2,45; 5,03</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>3,99; 6,51</t>
         </is>
       </c>
     </row>
@@ -963,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>2,11%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2,61%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>3,92%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,76%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2,61%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>5,42%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>6,77%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>8,21%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>4,88%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>6,77%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>3,82%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4,76%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>6,17%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>3,37%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>4,76%</t>
         </is>
       </c>
     </row>
@@ -1016,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>1,5; 2,8</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2,06; 3,37</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>3,36; 4,58</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>1,05; 2,4</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>2,06; 3,37</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>4,65; 6,3</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>5,85; 7,82</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>7,43; 9,05</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>3,5; 5,89</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>5,85; 7,82</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>3,34; 4,42</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>4,22; 5,39</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>5,65; 6,7</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>2,6; 4,04</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>4,22; 5,39</t>
         </is>
       </c>
     </row>
@@ -1146,47 +1146,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -1216,47 +1216,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>22</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>74</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>96</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>102</t>
         </is>
       </c>
     </row>
@@ -1269,47 +1269,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>7087</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>10582</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>3178</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>6877</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>10582</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>36275</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>26020</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>11369</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>34037</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>26020</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>43363</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>36602</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>14547</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>40915</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>36602</t>
         </is>
       </c>
     </row>
@@ -1322,47 +1322,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>3331; 13137</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6944; 15569</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>2086; 5017</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3311; 12579</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>6944; 15569</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>27825; 45698</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>20797; 32654</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>8932; 14452</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>26243; 43117</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>20797; 32654</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>34086; 55857</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>29489; 44834</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>12052; 17898</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>32019; 52606</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>29489; 44834</t>
         </is>
       </c>
     </row>
@@ -1379,47 +1379,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>124</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>246</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>370</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>114</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>130</t>
         </is>
       </c>
     </row>
@@ -1432,47 +1432,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>26031</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>17619</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>20694</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>19719</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>17619</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>57830</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>48069</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>40704</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>53074</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>48069</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>83861</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>65688</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>61398</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>72793</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>65688</t>
         </is>
       </c>
     </row>
@@ -1485,47 +1485,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>16629; 40052</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>12654; 25203</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>17431; 24913</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>10051; 31540</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>12654; 25203</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>47137; 72198</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>37853; 59137</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>35631; 46260</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>32419; 70374</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>37853; 59137</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>68192; 102046</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>54994; 78690</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>55184; 68504</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>51721; 93589</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>54994; 78690</t>
         </is>
       </c>
     </row>
@@ -1542,47 +1542,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>23</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>71</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>94</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>68</t>
         </is>
       </c>
     </row>
@@ -1595,47 +1595,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>10279</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>9816</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>4308</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>10290</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>9816</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>25101</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>31439</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>13126</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>21508</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>31439</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>35380</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>41255</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>17434</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>31798</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>41255</t>
         </is>
       </c>
     </row>
@@ -1648,47 +1648,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>5262; 19421</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5594; 16455</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>2814; 6502</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>5226; 19664</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>5594; 16455</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>17253; 35478</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>23678; 41994</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>9983; 16127</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>14524; 31435</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>23678; 41994</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>25471; 48281</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>31707; 51814</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>13639; 21257</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>22161; 45431</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>31707; 51814</t>
         </is>
       </c>
     </row>
@@ -1705,47 +1705,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>169</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>391</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>183</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>211</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>560</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>226</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>300</t>
         </is>
       </c>
     </row>
@@ -1758,47 +1758,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>43398</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>38016</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>28181</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>36886</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>38016</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>119206</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>105528</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>65199</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>108620</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>105528</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>162604</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>143545</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>93379</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>145506</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>143545</t>
         </is>
       </c>
     </row>
@@ -1811,47 +1811,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>30779; 57473</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>30058; 49042</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>24184; 32967</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>22071; 50423</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>30058; 49042</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>102266; 138471</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>91198; 121844</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>58954; 71868</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>77890; 130953</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>91198; 121844</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>141870; 187732</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>127284; 162648</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>85557; 101351</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>112419; 174385</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>127284; 162648</t>
         </is>
       </c>
     </row>
